--- a/API_py_scripts_write/case/myapidata.xlsx
+++ b/API_py_scripts_write/case/myapidata.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DC804E-C470-445F-9493-DC7F3C885A1C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,34 +93,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{ "errno" : 0, "errmsg" : null, "data" : "" }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ip=192.168.1.15&amp;mobilePhone=18301212965</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/farmplantend/plantUser/checkCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>登陆成功</t>
   </si>
   <si>
-    <t>bdh获取验证码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bdh用户登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bdh获取钱包余额</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>43E49hcbEfte1rIEBEanl12KaiiFyzuZsGdxJvmHHHKYFQ0k2fkoo1q9CPTjk4VGR1komGuszuxNqwmlKvM\ne31EbOlTNCUMg9OjEwlvKZwG7Z0gLzyK0JpmhveBnhF5vcG7OXjfiuCXWTOSAt/9Y8Hkl4LPNr//\nonbQug0IgfaMt3bJpU05KDJi4qGbKFgj4xp+p5pc+zPLVL4Mlko4UZR5DaTp208g9eO+DFzl5NTP\n4Yz9DJ8tUZ3n/+4Jq3Qe+BvPSHzsxUedqT94MfkvRuitpDSw7qhki8Tmn0YbOZQUdjefhc3+eNMY\n5toD92cvwyA4/uqVR/8/Rt0R6+iqaq0HD+8vRqWzyBcEKU90p19gf9+8fYl7sEZcQsSxvgdtaEVJ\n1uQMm3aTGIPKTt3oGUA9DIyzjg==</t>
   </si>
   <si>
     <t>/farmplantend/farmlands/count</t>
@@ -154,8 +134,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,7 +234,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -289,7 +269,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -466,26 +446,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="16.25" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="41.875" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="10.875" customWidth="1"/>
     <col min="6" max="6" width="18.25" customWidth="1"/>
     <col min="7" max="7" width="9.75" customWidth="1"/>
@@ -495,7 +475,7 @@
     <col min="12" max="12" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -533,32 +513,32 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -570,21 +550,21 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -596,42 +576,10 @@
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K4" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
